--- a/synuclein_inclusion_biogenesis_2024/image_analysis/linoleic_acid/06052025_SUMMARY.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/linoleic_acid/06052025_SUMMARY.xlsx
@@ -941,7 +941,7 @@
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>378.3333333333333</v>
+        <v>376.5</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1576,16 +1576,16 @@
         <v>28539</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>467.875</v>
+        <v>620.6666666666666</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
@@ -1714,16 +1714,16 @@
         <v>20783</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1760,16 +1760,16 @@
         <v>3029</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>26049</v>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36" t="n">
         <v>6</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>122</v>
+        <v>138.7142857142857</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2496,16 +2496,16 @@
         <v>16280</v>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>237.75</v>
+        <v>313.8333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -2956,16 +2956,16 @@
         <v>21317</v>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>516.2</v>
+        <v>638.5</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -3002,16 +3002,16 @@
         <v>11645</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3416,16 +3416,16 @@
         <v>18149</v>
       </c>
       <c r="D65" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E65" t="n">
         <v>3</v>
       </c>
       <c r="F65" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G65" t="n">
-        <v>49.08333333333334</v>
+        <v>77.57142857142857</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3600,16 +3600,16 @@
         <v>12618</v>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>12.66666666666667</v>
+        <v>26</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3646,31 +3646,31 @@
         <v>32549</v>
       </c>
       <c r="D70" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E70" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>39.54545454545455</v>
+        <v>50.25</v>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J70" t="n">
         <v>13</v>
       </c>
       <c r="K70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
         <v>7</v>
@@ -3741,10 +3741,10 @@
         <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>445.3333333333333</v>
@@ -3830,22 +3830,22 @@
         <v>13890</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -3971,13 +3971,13 @@
         <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>78.28571428571429</v>
+        <v>76.71428571428571</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -4201,10 +4201,10 @@
         <v>5</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
         <v>242.8</v>
@@ -4520,16 +4520,16 @@
         <v>34148</v>
       </c>
       <c r="D89" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E89" t="n">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G89" t="n">
-        <v>113.6</v>
+        <v>184.2222222222222</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4566,16 +4566,16 @@
         <v>14330</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5026,16 +5026,16 @@
         <v>34626</v>
       </c>
       <c r="D100" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E100" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F100" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G100" t="n">
-        <v>52.41176470588236</v>
+        <v>75.09090909090909</v>
       </c>
       <c r="H100" t="n">
         <v>3</v>
@@ -5440,16 +5440,16 @@
         <v>9585</v>
       </c>
       <c r="D109" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E109" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>14.85714285714286</v>
+        <v>33.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -5578,16 +5578,16 @@
         <v>32551</v>
       </c>
       <c r="D112" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E112" t="n">
         <v>3</v>
       </c>
       <c r="F112" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G112" t="n">
-        <v>225</v>
+        <v>247.875</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -5624,16 +5624,16 @@
         <v>29659</v>
       </c>
       <c r="D113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G113" t="n">
-        <v>47.75</v>
+        <v>60.66666666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5808,22 +5808,22 @@
         <v>73287</v>
       </c>
       <c r="D117" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E117" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>11.66666666666667</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J117" t="n">
         <v>13</v>
@@ -5854,22 +5854,22 @@
         <v>37877</v>
       </c>
       <c r="D118" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E118" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F118" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G118" t="n">
-        <v>41.15384615384615</v>
+        <v>56.33333333333334</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
         <v>4</v>
@@ -6038,16 +6038,16 @@
         <v>18389</v>
       </c>
       <c r="D122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>220.3333333333333</v>
+        <v>326</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -6498,16 +6498,16 @@
         <v>43039</v>
       </c>
       <c r="D132" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E132" t="n">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G132" t="n">
-        <v>71.25</v>
+        <v>137.25</v>
       </c>
       <c r="H132" t="n">
         <v>1</v>
@@ -6728,16 +6728,16 @@
         <v>23724</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -6866,16 +6866,16 @@
         <v>24188</v>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H140" t="n">
         <v>1</v>
@@ -7013,7 +7013,7 @@
         <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>23</v>
+        <v>20.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -7145,13 +7145,13 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>24563</v>
       </c>
       <c r="D147" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E147" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F147" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G147" t="n">
-        <v>159.45</v>
+        <v>240.3076923076923</v>
       </c>
       <c r="H147" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I147" t="n">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="J147" t="n">
         <v>3</v>
@@ -7694,16 +7694,16 @@
         <v>25395</v>
       </c>
       <c r="D158" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G158" t="n">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -8062,16 +8062,16 @@
         <v>19355</v>
       </c>
       <c r="D166" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G166" t="n">
-        <v>71.25</v>
+        <v>93</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>13839</v>
       </c>
       <c r="D171" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>52.625</v>
+        <v>57.85714285714285</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -8522,16 +8522,16 @@
         <v>44864</v>
       </c>
       <c r="D176" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E176" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>124.8333333333333</v>
+        <v>180.5</v>
       </c>
       <c r="H176" t="n">
         <v>1</v>
@@ -8543,10 +8543,10 @@
         <v>8</v>
       </c>
       <c r="K176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M176" t="n">
         <v>5</v>
@@ -8660,16 +8660,16 @@
         <v>20002</v>
       </c>
       <c r="D179" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
       </c>
       <c r="F179" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>27.09090909090909</v>
+        <v>35</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -8706,16 +8706,16 @@
         <v>13734</v>
       </c>
       <c r="D180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G180" t="n">
-        <v>139.6666666666667</v>
+        <v>207</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -9028,16 +9028,16 @@
         <v>19071</v>
       </c>
       <c r="D187" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E187" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>166.5</v>
+        <v>220.3333333333333</v>
       </c>
       <c r="H187" t="n">
         <v>3</v>
@@ -9258,16 +9258,16 @@
         <v>34503</v>
       </c>
       <c r="D192" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E192" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F192" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="G192" t="n">
-        <v>27.72727272727273</v>
+        <v>32.56</v>
       </c>
       <c r="H192" t="n">
         <v>3</v>
@@ -9304,22 +9304,22 @@
         <v>39350</v>
       </c>
       <c r="D193" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E193" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F193" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G193" t="n">
-        <v>120</v>
+        <v>157.1666666666667</v>
       </c>
       <c r="H193" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="n">
         <v>6</v>
@@ -9396,16 +9396,16 @@
         <v>5119</v>
       </c>
       <c r="D195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -9417,10 +9417,10 @@
         <v>2</v>
       </c>
       <c r="K195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M195" t="n">
         <v>3</v>
@@ -9442,16 +9442,16 @@
         <v>25481</v>
       </c>
       <c r="D196" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>59.2</v>
+        <v>81.85714285714286</v>
       </c>
       <c r="H196" t="n">
         <v>1</v>
@@ -9463,10 +9463,10 @@
         <v>5</v>
       </c>
       <c r="K196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M196" t="n">
         <v>3</v>
@@ -9672,16 +9672,16 @@
         <v>32997</v>
       </c>
       <c r="D201" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E201" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>56.5</v>
+        <v>68</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -9902,16 +9902,16 @@
         <v>41886</v>
       </c>
       <c r="D206" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E206" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F206" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>151</v>
+        <v>185.875</v>
       </c>
       <c r="H206" t="n">
         <v>1</v>
@@ -10040,16 +10040,16 @@
         <v>31818</v>
       </c>
       <c r="D209" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E209" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>49.5</v>
+        <v>71</v>
       </c>
       <c r="H209" t="n">
         <v>3</v>
@@ -10061,10 +10061,10 @@
         <v>6</v>
       </c>
       <c r="K209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M209" t="n">
         <v>3</v>
@@ -10224,16 +10224,16 @@
         <v>23376</v>
       </c>
       <c r="D213" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E213" t="n">
         <v>3</v>
       </c>
       <c r="F213" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G213" t="n">
-        <v>112.8888888888889</v>
+        <v>245.75</v>
       </c>
       <c r="H213" t="n">
         <v>1</v>
@@ -10592,16 +10592,16 @@
         <v>32278</v>
       </c>
       <c r="D221" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E221" t="n">
         <v>2</v>
       </c>
       <c r="F221" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G221" t="n">
-        <v>104.5714285714286</v>
+        <v>152.0714285714286</v>
       </c>
       <c r="H221" t="n">
         <v>1</v>
@@ -10684,16 +10684,16 @@
         <v>11276</v>
       </c>
       <c r="D223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G223" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -10868,16 +10868,16 @@
         <v>20889</v>
       </c>
       <c r="D227" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E227" t="n">
         <v>1</v>
       </c>
       <c r="F227" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G227" t="n">
-        <v>116.2</v>
+        <v>187</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>35934</v>
       </c>
       <c r="D228" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E228" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F228" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G228" t="n">
-        <v>77.40000000000001</v>
+        <v>94.5625</v>
       </c>
       <c r="H228" t="n">
         <v>2</v>
@@ -11144,16 +11144,16 @@
         <v>18877</v>
       </c>
       <c r="D233" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E233" t="n">
         <v>3</v>
       </c>
       <c r="F233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>385</v>
+        <v>510.3333333333333</v>
       </c>
       <c r="H233" t="n">
         <v>1</v>
@@ -11328,16 +11328,16 @@
         <v>18347</v>
       </c>
       <c r="D237" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E237" t="n">
         <v>1</v>
       </c>
       <c r="F237" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G237" t="n">
-        <v>118.2</v>
+        <v>192.3333333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -11466,16 +11466,16 @@
         <v>30650</v>
       </c>
       <c r="D240" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E240" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F240" t="n">
         <v>1</v>
       </c>
       <c r="G240" t="n">
-        <v>336.2857142857143</v>
+        <v>468</v>
       </c>
       <c r="H240" t="n">
         <v>3</v>
@@ -11742,16 +11742,16 @@
         <v>38919</v>
       </c>
       <c r="D246" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E246" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F246" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G246" t="n">
-        <v>175.75</v>
+        <v>199</v>
       </c>
       <c r="H246" t="n">
         <v>4</v>
@@ -11972,16 +11972,16 @@
         <v>31028</v>
       </c>
       <c r="D251" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E251" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F251" t="n">
         <v>2</v>
       </c>
       <c r="G251" t="n">
-        <v>161.5454545454545</v>
+        <v>193.5555555555555</v>
       </c>
       <c r="H251" t="n">
         <v>5</v>
@@ -12294,22 +12294,22 @@
         <v>33291</v>
       </c>
       <c r="D258" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E258" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F258" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G258" t="n">
-        <v>50.61904761904762</v>
+        <v>105.4444444444444</v>
       </c>
       <c r="H258" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J258" t="n">
         <v>7</v>
@@ -12340,16 +12340,16 @@
         <v>34253</v>
       </c>
       <c r="D259" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E259" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F259" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G259" t="n">
-        <v>272.8333333333333</v>
+        <v>484</v>
       </c>
       <c r="H259" t="n">
         <v>4</v>
@@ -12662,16 +12662,16 @@
         <v>17362</v>
       </c>
       <c r="D266" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E266" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F266" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>137.25</v>
+        <v>268</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -12754,16 +12754,16 @@
         <v>23618</v>
       </c>
       <c r="D268" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E268" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F268" t="n">
         <v>1</v>
       </c>
       <c r="G268" t="n">
-        <v>243.8</v>
+        <v>302.75</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -12892,16 +12892,16 @@
         <v>16711</v>
       </c>
       <c r="D271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E271" t="n">
         <v>0</v>
       </c>
       <c r="F271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>5.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -13306,16 +13306,16 @@
         <v>28891</v>
       </c>
       <c r="D280" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E280" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F280" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="G280" t="n">
-        <v>311.6</v>
+        <v>345.6666666666667</v>
       </c>
       <c r="H280" t="n">
         <v>8</v>
@@ -13536,31 +13536,31 @@
         <v>29601</v>
       </c>
       <c r="D285" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E285" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G285" t="n">
-        <v>15.2</v>
+        <v>25.5</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J285" t="n">
         <v>6</v>
       </c>
       <c r="K285" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L285" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M285" t="n">
         <v>4</v>
@@ -13585,10 +13585,10 @@
         <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F286" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G286" t="n">
         <v>1004</v>
@@ -13628,16 +13628,16 @@
         <v>10427</v>
       </c>
       <c r="D287" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E287" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F287" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>243.25</v>
+        <v>321.3333333333333</v>
       </c>
       <c r="H287" t="n">
         <v>3</v>
@@ -13674,16 +13674,16 @@
         <v>42603</v>
       </c>
       <c r="D288" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E288" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F288" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="G288" t="n">
-        <v>129.8823529411765</v>
+        <v>145.6</v>
       </c>
       <c r="H288" t="n">
         <v>5</v>
@@ -13723,10 +13723,10 @@
         <v>10</v>
       </c>
       <c r="E289" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F289" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G289" t="n">
         <v>466.8</v>
@@ -14226,16 +14226,16 @@
         <v>11928</v>
       </c>
       <c r="D300" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E300" t="n">
         <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G300" t="n">
-        <v>12.33333333333333</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -14364,16 +14364,16 @@
         <v>16909</v>
       </c>
       <c r="D303" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F303" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G303" t="n">
-        <v>69</v>
+        <v>118.8</v>
       </c>
       <c r="H303" t="n">
         <v>2</v>
@@ -14548,16 +14548,16 @@
         <v>14960</v>
       </c>
       <c r="D307" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E307" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G307" t="n">
-        <v>157.8</v>
+        <v>196</v>
       </c>
       <c r="H307" t="n">
         <v>3</v>
@@ -14594,16 +14594,16 @@
         <v>18797</v>
       </c>
       <c r="D308" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E308" t="n">
         <v>0</v>
       </c>
       <c r="F308" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G308" t="n">
-        <v>109.875</v>
+        <v>143.3333333333333</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -14824,16 +14824,16 @@
         <v>38646</v>
       </c>
       <c r="D313" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E313" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F313" t="n">
         <v>7</v>
       </c>
       <c r="G313" t="n">
-        <v>204.6923076923077</v>
+        <v>221.1666666666667</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -15376,22 +15376,22 @@
         <v>22893</v>
       </c>
       <c r="D325" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E325" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>53.25</v>
+        <v>69.33333333333333</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J325" t="n">
         <v>7</v>
@@ -15560,16 +15560,16 @@
         <v>22374</v>
       </c>
       <c r="D329" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E329" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>129.5</v>
+        <v>170.6666666666667</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -15836,16 +15836,16 @@
         <v>23293</v>
       </c>
       <c r="D335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E335" t="n">
         <v>0</v>
       </c>
       <c r="F335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -16664,16 +16664,16 @@
         <v>33506</v>
       </c>
       <c r="D353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E353" t="n">
         <v>0</v>
       </c>
       <c r="F353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G353" t="n">
-        <v>99.66666666666667</v>
+        <v>145.5</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -16894,22 +16894,22 @@
         <v>24355</v>
       </c>
       <c r="D358" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E358" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>22.66666666666667</v>
+        <v>53</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J358" t="n">
         <v>2</v>
@@ -17400,16 +17400,16 @@
         <v>29742</v>
       </c>
       <c r="D369" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E369" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F369" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G369" t="n">
-        <v>48.64285714285715</v>
+        <v>61.35</v>
       </c>
       <c r="H369" t="n">
         <v>1</v>
@@ -17449,13 +17449,13 @@
         <v>2</v>
       </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G370" t="n">
-        <v>151.5</v>
+        <v>148</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -17492,22 +17492,22 @@
         <v>15092</v>
       </c>
       <c r="D371" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F371" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G371" t="n">
-        <v>40.88888888888889</v>
+        <v>79.75</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J371" t="n">
         <v>3</v>
@@ -17630,22 +17630,22 @@
         <v>38694</v>
       </c>
       <c r="D374" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E374" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F374" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G374" t="n">
-        <v>32.60714285714285</v>
+        <v>44.31578947368421</v>
       </c>
       <c r="H374" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I374" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J374" t="n">
         <v>10</v>
@@ -18047,10 +18047,10 @@
         <v>2</v>
       </c>
       <c r="E383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F383" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G383" t="n">
         <v>193</v>
@@ -18191,7 +18191,7 @@
         <v>4</v>
       </c>
       <c r="G386" t="n">
-        <v>31.75</v>
+        <v>30.5</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
@@ -18274,22 +18274,22 @@
         <v>26619</v>
       </c>
       <c r="D388" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E388" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F388" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G388" t="n">
-        <v>246.3529411764706</v>
+        <v>297.2857142857143</v>
       </c>
       <c r="H388" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I388" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J388" t="n">
         <v>6</v>
@@ -18550,22 +18550,22 @@
         <v>38892</v>
       </c>
       <c r="D394" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E394" t="n">
+        <v>4</v>
+      </c>
+      <c r="F394" t="n">
         <v>10</v>
       </c>
-      <c r="F394" t="n">
-        <v>15</v>
-      </c>
       <c r="G394" t="n">
-        <v>86.08</v>
+        <v>147.8571428571429</v>
       </c>
       <c r="H394" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I394" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J394" t="n">
         <v>12</v>
@@ -18596,22 +18596,22 @@
         <v>29004</v>
       </c>
       <c r="D395" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E395" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F395" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="G395" t="n">
-        <v>377.2</v>
+        <v>416.2222222222222</v>
       </c>
       <c r="H395" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J395" t="n">
         <v>6</v>
@@ -18737,10 +18737,10 @@
         <v>4</v>
       </c>
       <c r="E398" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F398" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G398" t="n">
         <v>251</v>
@@ -18872,16 +18872,16 @@
         <v>16547</v>
       </c>
       <c r="D401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E401" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F401" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G401" t="n">
-        <v>99.33333333333333</v>
+        <v>141</v>
       </c>
       <c r="H401" t="n">
         <v>3</v>
@@ -18921,13 +18921,13 @@
         <v>4</v>
       </c>
       <c r="E402" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F402" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G402" t="n">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H402" t="n">
         <v>0</v>
@@ -19013,10 +19013,10 @@
         <v>4</v>
       </c>
       <c r="E404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G404" t="n">
         <v>117</v>
@@ -19148,16 +19148,16 @@
         <v>32363</v>
       </c>
       <c r="D407" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E407" t="n">
         <v>3</v>
       </c>
       <c r="F407" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G407" t="n">
-        <v>636.4444444444445</v>
+        <v>714</v>
       </c>
       <c r="H407" t="n">
         <v>2</v>
@@ -19194,22 +19194,22 @@
         <v>23238</v>
       </c>
       <c r="D408" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E408" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F408" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="G408" t="n">
-        <v>238.9285714285714</v>
+        <v>472</v>
       </c>
       <c r="H408" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I408" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J408" t="n">
         <v>6</v>
@@ -19286,16 +19286,16 @@
         <v>37111</v>
       </c>
       <c r="D410" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E410" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F410" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G410" t="n">
-        <v>194.65625</v>
+        <v>237.5384615384615</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -19332,16 +19332,16 @@
         <v>25247</v>
       </c>
       <c r="D411" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E411" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F411" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G411" t="n">
-        <v>226.1052631578947</v>
+        <v>384.4545454545454</v>
       </c>
       <c r="H411" t="n">
         <v>3</v>
@@ -19378,16 +19378,16 @@
         <v>8156</v>
       </c>
       <c r="D412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E412" t="n">
         <v>0</v>
       </c>
       <c r="F412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G412" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -19424,31 +19424,31 @@
         <v>23562</v>
       </c>
       <c r="D413" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E413" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F413" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G413" t="n">
-        <v>62.0625</v>
+        <v>116.25</v>
       </c>
       <c r="H413" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I413" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J413" t="n">
         <v>7</v>
       </c>
       <c r="K413" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M413" t="n">
         <v>6</v>
@@ -19700,16 +19700,16 @@
         <v>87114</v>
       </c>
       <c r="D419" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E419" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F419" t="n">
         <v>1</v>
       </c>
       <c r="G419" t="n">
-        <v>453.1428571428572</v>
+        <v>527.8333333333334</v>
       </c>
       <c r="H419" t="n">
         <v>0</v>
@@ -19792,16 +19792,16 @@
         <v>43803</v>
       </c>
       <c r="D421" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E421" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F421" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="G421" t="n">
-        <v>69.14285714285714</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="H421" t="n">
         <v>0</v>
@@ -19930,22 +19930,22 @@
         <v>22499</v>
       </c>
       <c r="D424" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E424" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G424" t="n">
-        <v>156.5714285714286</v>
+        <v>270.25</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I424" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J424" t="n">
         <v>5</v>
@@ -20114,16 +20114,16 @@
         <v>63604</v>
       </c>
       <c r="D428" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E428" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F428" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G428" t="n">
-        <v>403.3333333333333</v>
+        <v>453.125</v>
       </c>
       <c r="H428" t="n">
         <v>0</v>
@@ -20206,16 +20206,16 @@
         <v>19893</v>
       </c>
       <c r="D430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E430" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F430" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G430" t="n">
-        <v>972.3333333333334</v>
+        <v>1456</v>
       </c>
       <c r="H430" t="n">
         <v>3</v>
@@ -20252,16 +20252,16 @@
         <v>17662</v>
       </c>
       <c r="D431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F431" t="n">
         <v>0</v>
       </c>
       <c r="G431" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H431" t="n">
         <v>0</v>
@@ -20273,10 +20273,10 @@
         <v>4</v>
       </c>
       <c r="K431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M431" t="n">
         <v>1</v>
@@ -20804,16 +20804,16 @@
         <v>14414</v>
       </c>
       <c r="D443" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E443" t="n">
         <v>2</v>
       </c>
       <c r="F443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G443" t="n">
-        <v>87.40000000000001</v>
+        <v>107.5</v>
       </c>
       <c r="H443" t="n">
         <v>2</v>
@@ -20850,16 +20850,16 @@
         <v>20130</v>
       </c>
       <c r="D444" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E444" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F444" t="n">
         <v>0</v>
       </c>
       <c r="G444" t="n">
-        <v>150.8</v>
+        <v>186.25</v>
       </c>
       <c r="H444" t="n">
         <v>1</v>
@@ -20896,16 +20896,16 @@
         <v>29845</v>
       </c>
       <c r="D445" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E445" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F445" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G445" t="n">
-        <v>351.9090909090909</v>
+        <v>635.8333333333334</v>
       </c>
       <c r="H445" t="n">
         <v>7</v>
@@ -20942,16 +20942,16 @@
         <v>26783</v>
       </c>
       <c r="D446" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E446" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F446" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="G446" t="n">
-        <v>504.1428571428572</v>
+        <v>586</v>
       </c>
       <c r="H446" t="n">
         <v>1</v>
@@ -21080,16 +21080,16 @@
         <v>32038</v>
       </c>
       <c r="D449" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E449" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F449" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G449" t="n">
-        <v>104.5294117647059</v>
+        <v>157.8181818181818</v>
       </c>
       <c r="H449" t="n">
         <v>4</v>
@@ -21126,16 +21126,16 @@
         <v>23306</v>
       </c>
       <c r="D450" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E450" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F450" t="n">
         <v>0</v>
       </c>
       <c r="G450" t="n">
-        <v>63.75</v>
+        <v>120</v>
       </c>
       <c r="H450" t="n">
         <v>0</v>
@@ -21402,16 +21402,16 @@
         <v>22380</v>
       </c>
       <c r="D456" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E456" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F456" t="n">
         <v>3</v>
       </c>
       <c r="G456" t="n">
-        <v>34.625</v>
+        <v>38.57142857142857</v>
       </c>
       <c r="H456" t="n">
         <v>1</v>
@@ -21586,16 +21586,16 @@
         <v>30516</v>
       </c>
       <c r="D460" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E460" t="n">
         <v>3</v>
       </c>
       <c r="F460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G460" t="n">
-        <v>100.4</v>
+        <v>161.3333333333333</v>
       </c>
       <c r="H460" t="n">
         <v>0</v>
@@ -21632,16 +21632,16 @@
         <v>29192</v>
       </c>
       <c r="D461" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E461" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G461" t="n">
-        <v>152.5</v>
+        <v>201.5</v>
       </c>
       <c r="H461" t="n">
         <v>2</v>
@@ -21816,16 +21816,16 @@
         <v>25790</v>
       </c>
       <c r="D465" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E465" t="n">
         <v>1</v>
       </c>
       <c r="F465" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G465" t="n">
-        <v>27.4</v>
+        <v>39.66666666666666</v>
       </c>
       <c r="H465" t="n">
         <v>1</v>
@@ -21862,16 +21862,16 @@
         <v>43316</v>
       </c>
       <c r="D466" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E466" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F466" t="n">
         <v>0</v>
       </c>
       <c r="G466" t="n">
-        <v>38.16666666666666</v>
+        <v>44.6</v>
       </c>
       <c r="H466" t="n">
         <v>1</v>
@@ -21954,22 +21954,22 @@
         <v>36959</v>
       </c>
       <c r="D468" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F468" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G468" t="n">
-        <v>152.2857142857143</v>
+        <v>192.3636363636364</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J468" t="n">
         <v>2</v>
@@ -22000,16 +22000,16 @@
         <v>30870</v>
       </c>
       <c r="D469" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E469" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F469" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G469" t="n">
-        <v>77.11111111111111</v>
+        <v>111.6666666666667</v>
       </c>
       <c r="H469" t="n">
         <v>0</v>
@@ -22046,16 +22046,16 @@
         <v>27551</v>
       </c>
       <c r="D470" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E470" t="n">
         <v>0</v>
       </c>
       <c r="F470" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G470" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="H470" t="n">
         <v>0</v>
@@ -22138,16 +22138,16 @@
         <v>34030</v>
       </c>
       <c r="D472" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E472" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G472" t="n">
-        <v>314</v>
+        <v>465.5</v>
       </c>
       <c r="H472" t="n">
         <v>2</v>
@@ -22184,16 +22184,16 @@
         <v>39614</v>
       </c>
       <c r="D473" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E473" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F473" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G473" t="n">
-        <v>64.88888888888889</v>
+        <v>81.57142857142857</v>
       </c>
       <c r="H473" t="n">
         <v>0</v>
@@ -22322,16 +22322,16 @@
         <v>22520</v>
       </c>
       <c r="D476" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E476" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F476" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G476" t="n">
-        <v>22.29411764705882</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="H476" t="n">
         <v>0</v>
@@ -22414,16 +22414,16 @@
         <v>23320</v>
       </c>
       <c r="D478" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E478" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F478" t="n">
         <v>0</v>
       </c>
       <c r="G478" t="n">
-        <v>121.8571428571429</v>
+        <v>141.3333333333333</v>
       </c>
       <c r="H478" t="n">
         <v>0</v>
@@ -22460,16 +22460,16 @@
         <v>23905</v>
       </c>
       <c r="D479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E479" t="n">
         <v>0</v>
       </c>
       <c r="F479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G479" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H479" t="n">
         <v>0</v>
@@ -22552,16 +22552,16 @@
         <v>28486</v>
       </c>
       <c r="D481" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E481" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G481" t="n">
-        <v>236.4</v>
+        <v>386.6666666666667</v>
       </c>
       <c r="H481" t="n">
         <v>0</v>
@@ -22598,16 +22598,16 @@
         <v>30962</v>
       </c>
       <c r="D482" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E482" t="n">
         <v>1</v>
       </c>
       <c r="F482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G482" t="n">
-        <v>20.33333333333333</v>
+        <v>26.5</v>
       </c>
       <c r="H482" t="n">
         <v>0</v>
@@ -22782,16 +22782,16 @@
         <v>14192</v>
       </c>
       <c r="D486" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E486" t="n">
         <v>2</v>
       </c>
       <c r="F486" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G486" t="n">
-        <v>88.55555555555556</v>
+        <v>99</v>
       </c>
       <c r="H486" t="n">
         <v>1</v>
@@ -22874,16 +22874,16 @@
         <v>32016</v>
       </c>
       <c r="D488" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E488" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F488" t="n">
         <v>1</v>
       </c>
       <c r="G488" t="n">
-        <v>461.75</v>
+        <v>610.6666666666666</v>
       </c>
       <c r="H488" t="n">
         <v>0</v>
@@ -23380,16 +23380,16 @@
         <v>31583</v>
       </c>
       <c r="D499" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E499" t="n">
         <v>1</v>
       </c>
       <c r="F499" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G499" t="n">
-        <v>174.8333333333333</v>
+        <v>208.4</v>
       </c>
       <c r="H499" t="n">
         <v>0</v>
@@ -23564,16 +23564,16 @@
         <v>13717</v>
       </c>
       <c r="D503" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E503" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F503" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G503" t="n">
-        <v>235.8888888888889</v>
+        <v>299.8571428571428</v>
       </c>
       <c r="H503" t="n">
         <v>2</v>
@@ -23610,16 +23610,16 @@
         <v>21946</v>
       </c>
       <c r="D504" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E504" t="n">
         <v>1</v>
       </c>
       <c r="F504" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G504" t="n">
-        <v>396.5714285714286</v>
+        <v>460.6666666666667</v>
       </c>
       <c r="H504" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>3</v>
       </c>
       <c r="E505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F505" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G505" t="n">
         <v>51</v>
@@ -23702,16 +23702,16 @@
         <v>15232</v>
       </c>
       <c r="D506" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E506" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F506" t="n">
         <v>0</v>
       </c>
       <c r="G506" t="n">
-        <v>15.25</v>
+        <v>21</v>
       </c>
       <c r="H506" t="n">
         <v>0</v>
@@ -23840,16 +23840,16 @@
         <v>31571</v>
       </c>
       <c r="D509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F509" t="n">
         <v>0</v>
       </c>
       <c r="G509" t="n">
-        <v>529.6666666666666</v>
+        <v>788</v>
       </c>
       <c r="H509" t="n">
         <v>0</v>
@@ -24024,16 +24024,16 @@
         <v>28595</v>
       </c>
       <c r="D513" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E513" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F513" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G513" t="n">
-        <v>188.8181818181818</v>
+        <v>291.2142857142857</v>
       </c>
       <c r="H513" t="n">
         <v>0</v>
@@ -24070,16 +24070,16 @@
         <v>27519</v>
       </c>
       <c r="D514" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E514" t="n">
         <v>3</v>
       </c>
       <c r="F514" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G514" t="n">
-        <v>163.6923076923077</v>
+        <v>346.8333333333333</v>
       </c>
       <c r="H514" t="n">
         <v>1</v>
@@ -24162,16 +24162,16 @@
         <v>10708</v>
       </c>
       <c r="D516" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E516" t="n">
         <v>0</v>
       </c>
       <c r="F516" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G516" t="n">
-        <v>18.5</v>
+        <v>30.33333333333333</v>
       </c>
       <c r="H516" t="n">
         <v>0</v>
@@ -24300,16 +24300,16 @@
         <v>31074</v>
       </c>
       <c r="D519" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E519" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F519" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G519" t="n">
-        <v>323.3529411764706</v>
+        <v>545</v>
       </c>
       <c r="H519" t="n">
         <v>2</v>
@@ -24438,16 +24438,16 @@
         <v>10499</v>
       </c>
       <c r="D522" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E522" t="n">
         <v>0</v>
       </c>
       <c r="F522" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G522" t="n">
-        <v>37</v>
+        <v>55.71428571428572</v>
       </c>
       <c r="H522" t="n">
         <v>0</v>
@@ -24530,16 +24530,16 @@
         <v>35694</v>
       </c>
       <c r="D524" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
       </c>
       <c r="F524" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G524" t="n">
-        <v>35</v>
+        <v>53.83333333333334</v>
       </c>
       <c r="H524" t="n">
         <v>1</v>
@@ -24625,10 +24625,10 @@
         <v>1</v>
       </c>
       <c r="E526" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F526" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G526" t="n">
         <v>2801</v>
@@ -24763,10 +24763,10 @@
         <v>4</v>
       </c>
       <c r="E529" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F529" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="G529" t="n">
         <v>626.25</v>
@@ -24806,16 +24806,16 @@
         <v>12216</v>
       </c>
       <c r="D530" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E530" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F530" t="n">
         <v>0</v>
       </c>
       <c r="G530" t="n">
-        <v>105.8</v>
+        <v>169</v>
       </c>
       <c r="H530" t="n">
         <v>0</v>
@@ -24944,16 +24944,16 @@
         <v>37852</v>
       </c>
       <c r="D533" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E533" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F533" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G533" t="n">
-        <v>373</v>
+        <v>666.8</v>
       </c>
       <c r="H533" t="n">
         <v>1</v>
@@ -24990,16 +24990,16 @@
         <v>38350</v>
       </c>
       <c r="D534" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E534" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F534" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G534" t="n">
-        <v>141.6666666666667</v>
+        <v>209.75</v>
       </c>
       <c r="H534" t="n">
         <v>2</v>
@@ -25036,16 +25036,16 @@
         <v>12799</v>
       </c>
       <c r="D535" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E535" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F535" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G535" t="n">
-        <v>15.61538461538461</v>
+        <v>21.375</v>
       </c>
       <c r="H535" t="n">
         <v>3</v>
@@ -25082,16 +25082,16 @@
         <v>26446</v>
       </c>
       <c r="D536" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E536" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F536" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G536" t="n">
-        <v>313.2</v>
+        <v>443</v>
       </c>
       <c r="H536" t="n">
         <v>0</v>
@@ -25128,16 +25128,16 @@
         <v>20287</v>
       </c>
       <c r="D537" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G537" t="n">
-        <v>9.5</v>
+        <v>22</v>
       </c>
       <c r="H537" t="n">
         <v>0</v>
@@ -25177,10 +25177,10 @@
         <v>11</v>
       </c>
       <c r="E538" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F538" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="G538" t="n">
         <v>143.6363636363636</v>
@@ -25266,16 +25266,16 @@
         <v>4288</v>
       </c>
       <c r="D540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F540" t="n">
         <v>0</v>
       </c>
       <c r="G540" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="H540" t="n">
         <v>0</v>
@@ -25358,22 +25358,22 @@
         <v>33529</v>
       </c>
       <c r="D542" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E542" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F542" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G542" t="n">
-        <v>137</v>
+        <v>179.6666666666667</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I542" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J542" t="n">
         <v>7</v>
@@ -25404,16 +25404,16 @@
         <v>27900</v>
       </c>
       <c r="D543" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E543" t="n">
         <v>0</v>
       </c>
       <c r="F543" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G543" t="n">
-        <v>31.36363636363636</v>
+        <v>44.42857142857143</v>
       </c>
       <c r="H543" t="n">
         <v>0</v>
@@ -25634,16 +25634,16 @@
         <v>30501</v>
       </c>
       <c r="D548" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E548" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F548" t="n">
         <v>0</v>
       </c>
       <c r="G548" t="n">
-        <v>177.6666666666667</v>
+        <v>262.5</v>
       </c>
       <c r="H548" t="n">
         <v>0</v>
@@ -26048,16 +26048,16 @@
         <v>21676</v>
       </c>
       <c r="D557" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E557" t="n">
         <v>1</v>
       </c>
       <c r="F557" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G557" t="n">
-        <v>69</v>
+        <v>118.6</v>
       </c>
       <c r="H557" t="n">
         <v>1</v>
@@ -26232,16 +26232,16 @@
         <v>19469</v>
       </c>
       <c r="D561" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E561" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F561" t="n">
         <v>4</v>
       </c>
       <c r="G561" t="n">
-        <v>130.5</v>
+        <v>143.6666666666667</v>
       </c>
       <c r="H561" t="n">
         <v>5</v>
@@ -26600,16 +26600,16 @@
         <v>5732</v>
       </c>
       <c r="D569" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E569" t="n">
         <v>0</v>
       </c>
       <c r="F569" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G569" t="n">
-        <v>73.25</v>
+        <v>94.66666666666667</v>
       </c>
       <c r="H569" t="n">
         <v>0</v>
@@ -26646,16 +26646,16 @@
         <v>27937</v>
       </c>
       <c r="D570" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E570" t="n">
         <v>1</v>
       </c>
       <c r="F570" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G570" t="n">
-        <v>120.4285714285714</v>
+        <v>166</v>
       </c>
       <c r="H570" t="n">
         <v>1</v>
@@ -26784,16 +26784,16 @@
         <v>33089</v>
       </c>
       <c r="D573" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E573" t="n">
         <v>2</v>
       </c>
       <c r="F573" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G573" t="n">
-        <v>176.3589743589744</v>
+        <v>371.2777777777778</v>
       </c>
       <c r="H573" t="n">
         <v>2</v>
@@ -26830,16 +26830,16 @@
         <v>20720</v>
       </c>
       <c r="D574" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E574" t="n">
         <v>0</v>
       </c>
       <c r="F574" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G574" t="n">
-        <v>60.5</v>
+        <v>115.5</v>
       </c>
       <c r="H574" t="n">
         <v>0</v>
@@ -26876,16 +26876,16 @@
         <v>12807</v>
       </c>
       <c r="D575" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E575" t="n">
         <v>0</v>
       </c>
       <c r="F575" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G575" t="n">
-        <v>14.8</v>
+        <v>50</v>
       </c>
       <c r="H575" t="n">
         <v>0</v>
@@ -27198,16 +27198,16 @@
         <v>31028</v>
       </c>
       <c r="D582" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E582" t="n">
         <v>0</v>
       </c>
       <c r="F582" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G582" t="n">
-        <v>59.07692307692308</v>
+        <v>68.81818181818181</v>
       </c>
       <c r="H582" t="n">
         <v>0</v>
@@ -27888,16 +27888,16 @@
         <v>28542</v>
       </c>
       <c r="D597" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E597" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F597" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G597" t="n">
-        <v>55.8</v>
+        <v>72.83333333333333</v>
       </c>
       <c r="H597" t="n">
         <v>3</v>
@@ -27934,16 +27934,16 @@
         <v>20781</v>
       </c>
       <c r="D598" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E598" t="n">
         <v>0</v>
       </c>
       <c r="F598" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G598" t="n">
-        <v>97.59999999999999</v>
+        <v>136.4285714285714</v>
       </c>
       <c r="H598" t="n">
         <v>0</v>
@@ -28026,16 +28026,16 @@
         <v>29606</v>
       </c>
       <c r="D600" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E600" t="n">
         <v>0</v>
       </c>
       <c r="F600" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G600" t="n">
-        <v>25.72727272727273</v>
+        <v>39.58333333333334</v>
       </c>
       <c r="H600" t="n">
         <v>0</v>
@@ -28072,16 +28072,16 @@
         <v>22371</v>
       </c>
       <c r="D601" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E601" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F601" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G601" t="n">
-        <v>70.2</v>
+        <v>102.5625</v>
       </c>
       <c r="H601" t="n">
         <v>1</v>
@@ -28348,16 +28348,16 @@
         <v>8151</v>
       </c>
       <c r="D607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E607" t="n">
         <v>0</v>
       </c>
       <c r="F607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G607" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H607" t="n">
         <v>0</v>
@@ -28486,16 +28486,16 @@
         <v>32553</v>
       </c>
       <c r="D610" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E610" t="n">
         <v>2</v>
       </c>
       <c r="F610" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G610" t="n">
-        <v>78.64516129032258</v>
+        <v>113</v>
       </c>
       <c r="H610" t="n">
         <v>1</v>
@@ -28670,16 +28670,16 @@
         <v>32868</v>
       </c>
       <c r="D614" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E614" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F614" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G614" t="n">
-        <v>54.94117647058823</v>
+        <v>86.16666666666667</v>
       </c>
       <c r="H614" t="n">
         <v>2</v>
@@ -28716,16 +28716,16 @@
         <v>19324</v>
       </c>
       <c r="D615" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E615" t="n">
         <v>0</v>
       </c>
       <c r="F615" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G615" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="H615" t="n">
         <v>0</v>
@@ -28762,16 +28762,16 @@
         <v>23027</v>
       </c>
       <c r="D616" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E616" t="n">
         <v>2</v>
       </c>
       <c r="F616" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G616" t="n">
-        <v>103.8888888888889</v>
+        <v>143.4736842105263</v>
       </c>
       <c r="H616" t="n">
         <v>0</v>
@@ -28946,16 +28946,16 @@
         <v>23762</v>
       </c>
       <c r="D620" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E620" t="n">
         <v>1</v>
       </c>
       <c r="F620" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G620" t="n">
-        <v>102.40625</v>
+        <v>139.7826086956522</v>
       </c>
       <c r="H620" t="n">
         <v>0</v>
@@ -29406,16 +29406,16 @@
         <v>17245</v>
       </c>
       <c r="D630" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E630" t="n">
         <v>2</v>
       </c>
       <c r="F630" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G630" t="n">
-        <v>196.3333333333333</v>
+        <v>291.3333333333333</v>
       </c>
       <c r="H630" t="n">
         <v>0</v>
@@ -29544,16 +29544,16 @@
         <v>25361</v>
       </c>
       <c r="D633" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E633" t="n">
         <v>3</v>
       </c>
       <c r="F633" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G633" t="n">
-        <v>66.38461538461539</v>
+        <v>116.4285714285714</v>
       </c>
       <c r="H633" t="n">
         <v>0</v>
@@ -29590,16 +29590,16 @@
         <v>4979</v>
       </c>
       <c r="D634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E634" t="n">
         <v>0</v>
       </c>
       <c r="F634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G634" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="H634" t="n">
         <v>0</v>
@@ -29636,16 +29636,16 @@
         <v>21260</v>
       </c>
       <c r="D635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E635" t="n">
         <v>0</v>
       </c>
       <c r="F635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G635" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H635" t="n">
         <v>0</v>
@@ -29682,16 +29682,16 @@
         <v>15550</v>
       </c>
       <c r="D636" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E636" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F636" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G636" t="n">
-        <v>37.46153846153846</v>
+        <v>56.375</v>
       </c>
       <c r="H636" t="n">
         <v>2</v>
@@ -29774,16 +29774,16 @@
         <v>22746</v>
       </c>
       <c r="D638" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E638" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F638" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G638" t="n">
-        <v>64.82608695652173</v>
+        <v>81.11111111111111</v>
       </c>
       <c r="H638" t="n">
         <v>1</v>
@@ -29820,16 +29820,16 @@
         <v>20239</v>
       </c>
       <c r="D639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E639" t="n">
         <v>0</v>
       </c>
       <c r="F639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G639" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H639" t="n">
         <v>0</v>
@@ -30096,16 +30096,16 @@
         <v>13490</v>
       </c>
       <c r="D645" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E645" t="n">
         <v>0</v>
       </c>
       <c r="F645" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G645" t="n">
-        <v>49.25</v>
+        <v>90.25</v>
       </c>
       <c r="H645" t="n">
         <v>0</v>
@@ -30694,16 +30694,16 @@
         <v>18278</v>
       </c>
       <c r="D658" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E658" t="n">
         <v>1</v>
       </c>
       <c r="F658" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G658" t="n">
-        <v>128.3333333333333</v>
+        <v>152.2</v>
       </c>
       <c r="H658" t="n">
         <v>0</v>
@@ -30832,16 +30832,16 @@
         <v>15503</v>
       </c>
       <c r="D661" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E661" t="n">
         <v>1</v>
       </c>
       <c r="F661" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G661" t="n">
-        <v>47.125</v>
+        <v>71.2</v>
       </c>
       <c r="H661" t="n">
         <v>1</v>
@@ -30970,16 +30970,16 @@
         <v>25142</v>
       </c>
       <c r="D664" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E664" t="n">
         <v>0</v>
       </c>
       <c r="F664" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G664" t="n">
-        <v>13</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="H664" t="n">
         <v>0</v>
@@ -31476,16 +31476,16 @@
         <v>17782</v>
       </c>
       <c r="D675" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E675" t="n">
         <v>0</v>
       </c>
       <c r="F675" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G675" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H675" t="n">
         <v>0</v>
@@ -32028,16 +32028,16 @@
         <v>18013</v>
       </c>
       <c r="D687" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E687" t="n">
         <v>0</v>
       </c>
       <c r="F687" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G687" t="n">
-        <v>202.5</v>
+        <v>268</v>
       </c>
       <c r="H687" t="n">
         <v>0</v>
@@ -32350,16 +32350,16 @@
         <v>22650</v>
       </c>
       <c r="D694" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E694" t="n">
         <v>2</v>
       </c>
       <c r="F694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G694" t="n">
-        <v>32</v>
+        <v>43.5</v>
       </c>
       <c r="H694" t="n">
         <v>1</v>
